--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hcrt-Hcrtr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hcrt-Hcrtr2.xlsx
@@ -79,7 +79,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>MuSCs</t>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -531,22 +531,22 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.399539</v>
+        <v>0.39064</v>
       </c>
       <c r="H2">
-        <v>1.198617</v>
+        <v>1.17192</v>
       </c>
       <c r="I2">
-        <v>0.719860690374207</v>
+        <v>0.5296693860025763</v>
       </c>
       <c r="J2">
-        <v>0.7198606903742069</v>
+        <v>0.5296693860025762</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.003005332358</v>
+        <v>0.002938394080000001</v>
       </c>
       <c r="R2">
-        <v>0.027047991222</v>
+        <v>0.02644554672</v>
       </c>
       <c r="S2">
-        <v>0.719860690374207</v>
+        <v>0.5296693860025763</v>
       </c>
       <c r="T2">
-        <v>0.7198606903742069</v>
+        <v>0.5296693860025762</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02923533333333333</v>
+        <v>0.1178916666666667</v>
       </c>
       <c r="H3">
-        <v>0.08770599999999999</v>
+        <v>0.353675</v>
       </c>
       <c r="I3">
-        <v>0.05267412502071987</v>
+        <v>0.1598494949266683</v>
       </c>
       <c r="J3">
-        <v>0.05267412502071987</v>
+        <v>0.1598494949266683</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.0002199081773333333</v>
+        <v>0.0008867811166666667</v>
       </c>
       <c r="R3">
-        <v>0.001979173596</v>
+        <v>0.007981030050000001</v>
       </c>
       <c r="S3">
-        <v>0.05267412502071987</v>
+        <v>0.1598494949266683</v>
       </c>
       <c r="T3">
-        <v>0.05267412502071987</v>
+        <v>0.1598494949266683</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1262483333333333</v>
+        <v>0.228985</v>
       </c>
       <c r="H4">
-        <v>0.378745</v>
+        <v>0.686955</v>
       </c>
       <c r="I4">
-        <v>0.2274651846050732</v>
+        <v>0.3104811190707554</v>
       </c>
       <c r="J4">
-        <v>0.2274651846050731</v>
+        <v>0.3104811190707554</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.0009496399633333333</v>
+        <v>0.00172242517</v>
       </c>
       <c r="R4">
-        <v>0.008546759669999999</v>
+        <v>0.01550182653</v>
       </c>
       <c r="S4">
-        <v>0.2274651846050732</v>
+        <v>0.3104811190707554</v>
       </c>
       <c r="T4">
-        <v>0.2274651846050731</v>
+        <v>0.3104811190707554</v>
       </c>
     </row>
   </sheetData>
